--- a/ABBYY_Shootout.suite/Resources/ABBYY_IssueList.xlsx
+++ b/ABBYY_Shootout.suite/Resources/ABBYY_IssueList.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="libxl" lastEdited="7" lowestEdited="7" rupBuild="4.6.0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScriptRepositories\ABBYY_Shootout\ABBYY_Shootout.suite\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\ABBYY_Shootout\ABBYY_Shootout.suite\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C853C5-1C7A-46B1-B689-249A98017D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BABDCCF-CCAE-46F6-B4F8-E2121F961C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8850" yWindow="-21710" windowWidth="38620" windowHeight="21100"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last 24 hours Failed Scheduled " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true" refMode="R1C1"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Script</t>
   </si>
@@ -67,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,19 +259,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038484"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778863"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519242"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -282,19 +282,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038484"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778863"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519242"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -305,19 +305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038484"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778863"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519242"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -328,19 +328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038484"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778863"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519242"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -351,19 +351,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038484"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778863"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519242"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -374,19 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038484"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778863"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519242"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -425,7 +425,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.49995422223579"/>
+        <color theme="4" tint="0.49995422223578601"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,7 +434,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519242"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,108 +521,108 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="true"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="true"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="true"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="true"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="true"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="true"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="true"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="true"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="true"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="true"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="true"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="true"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="true"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="true"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="true"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="true"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="true"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="true"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="true"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="true"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="true"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="true"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="true"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="true"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="true"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="true"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="true"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="true"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="true"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="true"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="true"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="true"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="true"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,7 +638,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -789,7 +789,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -813,9 +813,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -839,7 +839,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -874,7 +874,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -892,7 +892,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -917,7 +917,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -953,24 +953,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDF119E-664B-4170-8994-2CAC0F6CD390}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDF119E-664B-4170-8994-2CAC0F6CD390}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="14.33203125" style="5" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="168.77734375" style="7" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="12.109375" style="2" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="12.6640625" style="2" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="168.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -990,7 +988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1003,11 +1001,8 @@
       <c r="D2" s="6">
         <v>12.2</v>
       </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1020,11 +1015,8 @@
       <c r="D3" s="6">
         <v>12.2</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1037,11 +1029,8 @@
       <c r="D4" s="6">
         <v>12.2</v>
       </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1054,11 +1043,8 @@
       <c r="D5" s="6">
         <v>12.2</v>
       </c>
-      <c r="E5" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1071,11 +1057,8 @@
       <c r="D6" s="6">
         <v>12.2</v>
       </c>
-      <c r="E6" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1088,11 +1071,8 @@
       <c r="D7" s="6">
         <v>12.2</v>
       </c>
-      <c r="E7" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1105,11 +1085,8 @@
       <c r="D8" s="6">
         <v>12.2</v>
       </c>
-      <c r="E8" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1122,14 +1099,11 @@
       <c r="D9" s="6">
         <v>12.4</v>
       </c>
-      <c r="E9" s="2" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" s="8"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D13" s="8"/>
     </row>
   </sheetData>

--- a/ABBYY_Shootout.suite/Resources/ABBYY_IssueList.xlsx
+++ b/ABBYY_Shootout.suite/Resources/ABBYY_IssueList.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScriptRepositories\ABBYY_Shootout\ABBYY_Shootout.suite\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C853C5-1C7A-46B1-B689-249A98017D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA6E5C-3753-4047-8920-7E50FF8277B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8850" yWindow="-21710" windowWidth="38620" windowHeight="21100"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="28800" windowHeight="15360"/>
   </bookViews>
   <sheets>
-    <sheet name="Last 24 hours Failed Scheduled " sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Extra Crispy" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true" refMode="R1C1"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="28" uniqueCount="22">
   <si>
     <t>Script</t>
   </si>
@@ -62,6 +63,30 @@
   </si>
   <si>
     <t>RecNumber</t>
+  </si>
+  <si>
+    <t>Imagefound(text:"Episode", SearchRectangle: [231,209,1896,247], waitFor: 1)</t>
+  </si>
+  <si>
+    <t>Imagefound(TEXT:"Application Access Menu", validWords:"*")</t>
+  </si>
+  <si>
+    <t>Imagefound(TEXT:"ZZZeggplant, IPInfection",ValidCharacters:"A".."Z" &amp;&amp;&amp; "a".."z" &amp;&amp;&amp; "," &amp;&amp;&amp; ".",IgnoreSpaces:yes,waitfor:0,textDifference:1,ignorenewlines:yes ,searchRectangle:[465,194,573,1078])</t>
+  </si>
+  <si>
+    <t>Imagefound(TEXT:"ZZZeggplant, IPwardnurse",ValidCharacters:"A".."Z" &amp;&amp;&amp; "a".."z" &amp;&amp;&amp; "," &amp;&amp;&amp; ".",IgnoreSpaces:yes,waitfor:0,textDifference:1,ignorenewlines:yes ,searchRectangle:[465,194,573,1078])</t>
+  </si>
+  <si>
+    <t>Imagefound(text:"In", waitFor:0,caseSensitive:"yes", SearchRectangle: [655,347,1265,652])</t>
+  </si>
+  <si>
+    <t>imageFound(text: "patient", searchRectangle:[1240,143,1915,1034])</t>
+  </si>
+  <si>
+    <t>imageFound(dpi:"144", SearchRectangle:[230,240,1919,279], text:"Hide Add'l Visits", TextDifference:"2")</t>
+  </si>
+  <si>
+    <t>Imagefound(SearchRectangle:[435,155,1482,972], text:"Arrange Views")</t>
   </si>
 </sst>
 </file>
@@ -956,21 +981,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDF119E-664B-4170-8994-2CAC0F6CD390}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" style="5" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="14.36328125" style="5" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="168.81640625" style="7" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="11.6328125" style="7" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="12.08984375" style="2" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="12.6328125" style="2" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>63223</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>63253</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>63262</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>63246</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>63222</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>63130</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>63190</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>63090</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.35">
+      <c r="C10" s="8"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.35">
+      <c r="D13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B94BF2-A15F-4905-9619-72031F4A7DBC}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="5" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="14.33203125" style="5" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="168.77734375" style="7" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="12.109375" style="2" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="12.6640625" style="2" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="14.36328125" style="5" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="168.81640625" style="7" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="11.6328125" style="7" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="12.08984375" style="2" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="12.6328125" style="2" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -990,7 +1198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -998,7 +1206,7 @@
         <v>63223</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" s="6">
         <v>12.2</v>
@@ -1007,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1015,7 +1223,7 @@
         <v>63253</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6">
         <v>12.2</v>
@@ -1024,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1032,7 +1240,7 @@
         <v>63262</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6">
         <v>12.2</v>
@@ -1041,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1049,7 +1257,7 @@
         <v>63246</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6">
         <v>12.2</v>
@@ -1058,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1066,7 +1274,7 @@
         <v>63222</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6">
         <v>12.2</v>
@@ -1075,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1083,7 +1291,7 @@
         <v>63130</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6">
         <v>12.2</v>
@@ -1092,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1100,7 +1308,7 @@
         <v>63190</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6">
         <v>12.2</v>
@@ -1109,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1117,19 +1325,19 @@
         <v>63090</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6">
         <v>12.4</v>
       </c>
       <c r="E9" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.35">
       <c r="C10" s="8"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.35">
       <c r="D13" s="8"/>
     </row>
   </sheetData>

--- a/ABBYY_Shootout.suite/Resources/ABBYY_IssueList.xlsx
+++ b/ABBYY_Shootout.suite/Resources/ABBYY_IssueList.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\ABBYY_Shootout\ABBYY_Shootout.suite\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keysighttech-my.sharepoint.com/personal/dave_hester_keysight_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BABDCCF-CCAE-46F6-B4F8-E2121F961C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6474AE51-F507-4B43-8250-67BB0D887673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Last 24 hours Failed Scheduled " sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Extra Crispy" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Script</t>
   </si>
@@ -62,6 +63,30 @@
   </si>
   <si>
     <t>RecNumber</t>
+  </si>
+  <si>
+    <t>Imagefound(text:"Episode", SearchRectangle: [231,209,1896,247], waitFor: 1)</t>
+  </si>
+  <si>
+    <t>Imagefound(TEXT:"Application Access Menu", validWords:"*")</t>
+  </si>
+  <si>
+    <t>Imagefound(TEXT:"ZZZeggplant, IPInfection",ValidCharacters:"A".."Z" &amp;&amp;&amp; "a".."z" &amp;&amp;&amp; "," &amp;&amp;&amp; ".",IgnoreSpaces:yes,waitfor:0,textDifference:1,ignorenewlines:yes ,searchRectangle:[465,194,573,1078])</t>
+  </si>
+  <si>
+    <t>Imagefound(TEXT:"ZZZeggplant, IPwardnurse",ValidCharacters:"A".."Z" &amp;&amp;&amp; "a".."z" &amp;&amp;&amp; "," &amp;&amp;&amp; ".",IgnoreSpaces:yes,waitfor:0,textDifference:1,ignorenewlines:yes ,searchRectangle:[465,194,573,1078])</t>
+  </si>
+  <si>
+    <t>Imagefound(text:"In", waitFor:0,caseSensitive:"yes", SearchRectangle: [655,347,1265,652])</t>
+  </si>
+  <si>
+    <t>imageFound(text: "patient", searchRectangle:[1240,143,1915,1034])</t>
+  </si>
+  <si>
+    <t>imageFound(dpi:"144", SearchRectangle:[230,240,1919,279], text:"Hide Add'l Visits", TextDifference:"2")</t>
+  </si>
+  <si>
+    <t>Imagefound(SearchRectangle:[435,155,1482,972], text:"Arrange Views")</t>
   </si>
 </sst>
 </file>
@@ -956,7 +981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDF119E-664B-4170-8994-2CAC0F6CD390}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1111,6 +1138,167 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B94BF2-A15F-4905-9619-72031F4A7DBC}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E2:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="168.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>63223</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>63253</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>63262</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>63246</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>63222</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>63130</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>63190</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>63090</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{cf7ff65a-ced6-400c-9856-fcac58ff39e8}" enabled="0" method="" siteId="{cf7ff65a-ced6-400c-9856-fcac58ff39e8}" removed="1"/>

--- a/ABBYY_Shootout.suite/Resources/ABBYY_IssueList.xlsx
+++ b/ABBYY_Shootout.suite/Resources/ABBYY_IssueList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keysighttech-my.sharepoint.com/personal/dave_hester_keysight_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScriptRepositories\ABBYY_Shootout\ABBYY_Shootout.suite\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6474AE51-F507-4B43-8250-67BB0D887673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDEAFCD-C889-4A61-A853-4B261DAF1057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -981,8 +981,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDF119E-664B-4170-8994-2CAC0F6CD390}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="168.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>63223</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>63253</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>63262</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>63246</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>63222</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>63130</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>63190</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>63090</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B94BF2-A15F-4905-9619-72031F4A7DBC}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,167 +1182,6 @@
         <v>63223</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>63253</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>63262</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>63246</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>63222</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>63130</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>63190</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>63090</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D13" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B94BF2-A15F-4905-9619-72031F4A7DBC}">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E2:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="168.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>63223</v>
-      </c>
-      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="6">
